--- a/Statistik/Tegning statistik.xlsx
+++ b/Statistik/Tegning statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Drawing-robot-semester-1\Statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A5CDC7-4369-4D57-A945-C45F26C8300E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF3C0E8-7306-436B-96F6-8B61CDECC17C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Tegning</t>
   </si>
@@ -63,13 +63,22 @@
     <t>"A stary night"</t>
   </si>
   <si>
-    <t>Sortering 1</t>
+    <t>Sort/hvid sortering</t>
   </si>
   <si>
-    <t>Sortering 2</t>
+    <t>Forskel</t>
   </si>
   <si>
-    <t>Sortering 3</t>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Kompleksitet 1</t>
+  </si>
+  <si>
+    <t>Kompleksitet 2</t>
+  </si>
+  <si>
+    <t>Kompleksitet 3</t>
   </si>
 </sst>
 </file>
@@ -201,24 +210,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$B$3:$C$7</c:f>
+              <c:f>Sheet1!$B$3:$C$9</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Sort/hvid linjer</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>Sort/hvid sortering</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>Edges (edgedetection)</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>GreyLine</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Sortering 2</c:v>
+                  <c:pt idx="4">
+                    <c:v>Kompleksitet 1</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Sortering 1</c:v>
+                  <c:pt idx="5">
+                    <c:v>Kompleksitet 2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Kompleksitet 3</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -237,37 +252,49 @@
                   <c:pt idx="4">
                     <c:v>Manden</c:v>
                   </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Yoda</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>"A stary night"</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$7</c:f>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1231</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3133</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2258</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D92-4D52-84BC-E6D23FA2EA9C}"/>
+              <c16:uniqueId val="{00000000-4F96-4F9B-B7F4-229B5BA4CA0E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -281,11 +308,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="489913328"/>
-        <c:axId val="409036656"/>
+        <c:axId val="1310728143"/>
+        <c:axId val="1215978751"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="489913328"/>
+        <c:axId val="1310728143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409036656"/>
+        <c:crossAx val="1215978751"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -336,7 +363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409036656"/>
+        <c:axId val="1215978751"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,7 +414,666 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489913328"/>
+        <c:crossAx val="1310728143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sortering</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$7:$C$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kompleksitet 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Kompleksitet 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Kompleksitet 3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Manden</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Yoda</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>"A stary night"</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2839-4F61-8458-062ADB8B241F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1318406191"/>
+        <c:axId val="1150824431"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1318406191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1150824431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1150824431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1318406191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Linjer vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> sorteringsalgoritme</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>(Sheet1!$B$3:$C$4,Sheet1!$B$6:$C$6,Sheet1!$B$8:$C$8)</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Sort/hvid linjer</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Sort/hvid sortering</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>GreyLine</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Kompleksitet 2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Yoda</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Yoda</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Yoda</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Yoda</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$3:$D$4,Sheet1!$D$6,Sheet1!$D$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30F3-414F-89C8-1E618D616F3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1313325807"/>
+        <c:axId val="1224368895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1313325807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1224368895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1224368895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1313325807"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -476,6 +1162,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -979,27 +1745,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A972C85-D1ED-42D8-8B28-71FAD02B0E60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C4C60A-D786-4C83-B468-F823ECA72EA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1012,6 +2784,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C970938-921D-4228-B7A8-6198D74444E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD8F302-42E6-4E23-A036-63C4C0F902CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1283,17 +3127,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -1317,16 +3161,30 @@
       <c r="D3">
         <v>843</v>
       </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>1231</v>
+        <v>1309</v>
+      </c>
+      <c r="F4">
+        <f>D4-D3</f>
+        <v>466</v>
+      </c>
+      <c r="G4">
+        <f>F4/60</f>
+        <v>7.7666666666666666</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1334,10 +3192,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>3133</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -1345,18 +3203,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>2033</v>
-      </c>
-      <c r="F6">
-        <f>D5-D6</f>
-        <v>1100</v>
-      </c>
-      <c r="G6">
-        <f>F6/60</f>
-        <v>18.333333333333332</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1364,7 +3214,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>2258</v>
@@ -1372,14 +3222,37 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>2033</v>
+      </c>
+      <c r="F8">
+        <f>D6-D8</f>
+        <v>1100</v>
+      </c>
+      <c r="G8">
+        <f>F8/60</f>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>7838</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Statistik/Tegning statistik.xlsx
+++ b/Statistik/Tegning statistik.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Drawing-robot-semester-1\Statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF3C0E8-7306-436B-96F6-8B61CDECC17C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85CF0C-FE0B-4FD7-A2E7-4BB49B4B282B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Tegning</t>
   </si>
   <si>
     <t>Metode</t>
-  </si>
-  <si>
-    <t>Tid</t>
   </si>
   <si>
     <t>Yoda</t>
@@ -54,9 +50,6 @@
     <t>Edges (edgedetection)</t>
   </si>
   <si>
-    <t>GreyLine</t>
-  </si>
-  <si>
     <t>Manden</t>
   </si>
   <si>
@@ -64,12 +57,6 @@
   </si>
   <si>
     <t>Sort/hvid sortering</t>
-  </si>
-  <si>
-    <t>Forskel</t>
-  </si>
-  <si>
-    <t>Min</t>
   </si>
   <si>
     <t>Kompleksitet 1</t>
@@ -80,15 +67,39 @@
   <si>
     <t>Kompleksitet 3</t>
   </si>
+  <si>
+    <t>Greyscale linjer</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>skalar</t>
+  </si>
+  <si>
+    <t>Forholdsfaktor</t>
+  </si>
+  <si>
+    <t>Tid [min]</t>
+  </si>
+  <si>
+    <t>Tid [s]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +184,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -193,7 +204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tid</c:v>
+                  <c:v>Tid [s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -224,7 +235,7 @@
                     <c:v>Edges (edgedetection)</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>GreyLine</c:v>
+                    <c:v>Greyscale linjer</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Kompleksitet 1</c:v>
@@ -352,7 +363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1215978751"/>
@@ -411,7 +422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1310728143"/>
@@ -459,7 +470,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -491,7 +502,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -504,8 +515,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Sortering</a:t>
+              <a:rPr lang="en-GB" sz="2800"/>
+              <a:t>Sortering øgende kompleksitet - tider</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -523,7 +534,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -535,7 +546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -555,7 +566,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tid</c:v>
+                  <c:v>Tid [s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -644,6 +655,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="2800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Sortering med øget kompleksitet</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="2800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -666,7 +737,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -678,7 +749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1150824431"/>
@@ -709,6 +780,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="2800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>sekunder</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="2800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -725,7 +854,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -737,7 +866,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1318406191"/>
@@ -778,7 +907,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -810,7 +939,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -823,14 +952,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="2400" b="1"/>
               <a:t>Linjer vs.</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2400" b="1" baseline="0"/>
               <a:t> sorteringsalgoritme</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="2400" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -847,7 +976,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -859,7 +988,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -879,7 +1008,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tid</c:v>
+                  <c:v>Tid [s]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -894,6 +1023,44 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-48C4-4E36-8DD8-28E3A2D9DCCE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-48C4-4E36-8DD8-28E3A2D9DCCE}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
               <c:f>(Sheet1!$B$3:$C$4,Sheet1!$B$6:$C$6,Sheet1!$B$8:$C$8)</c:f>
@@ -907,7 +1074,7 @@
                     <c:v>Sort/hvid sortering</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>GreyLine</c:v>
+                    <c:v>Greyscale linjer</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Kompleksitet 2</c:v>
@@ -977,6 +1144,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="2000"/>
+                  <a:t>Tegningsmetoder</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -999,7 +1221,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1011,7 +1233,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1224368895"/>
@@ -1042,6 +1264,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="2000"/>
+                  <a:t>Sekunder</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1058,7 +1335,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1070,7 +1347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1313325807"/>
@@ -1111,7 +1388,454 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Sortering øgende kompleksitet</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t> - forhold</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forholdsfaktor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$7:$C$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="3"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kompleksitet 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Kompleksitet 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Kompleksitet 3</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Manden</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Yoda</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>"A stary night"</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.14548031698988467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18053458840245093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9921969307248402E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAEB-49CF-B5A0-DE7EAAD0FC41}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1424643279"/>
+        <c:axId val="1411940495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1424643279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="2800"/>
+                  <a:t>Sortering</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="2800" baseline="0"/>
+                  <a:t> med øget kompleksitet</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK" sz="2800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1411940495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1411940495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK" sz="2800"/>
+                  <a:t>sekunder/antal pixel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424643279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1242,6 +1966,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2751,20 +3515,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2791,16 +4058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2827,16 +4094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>568777</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>349703</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2856,6 +4123,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119061</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF3E777-4F4D-4538-B076-1B203DE3EEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3127,20 +4430,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.28515625" customWidth="1"/>
+    <col min="4" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3148,109 +4452,160 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3">
         <v>843</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
+      <c r="E3">
+        <f>D3/60</f>
+        <v>14.05</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1309</v>
       </c>
-      <c r="F4">
-        <f>D4-D3</f>
-        <v>466</v>
-      </c>
-      <c r="G4">
-        <f>F4/60</f>
-        <v>7.7666666666666666</v>
+      <c r="E4">
+        <f t="shared" ref="E4:E9" si="0">D4/60</f>
+        <v>21.816666666666666</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1231</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>20.516666666666666</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>3133</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>52.216666666666669</v>
+      </c>
+      <c r="L6">
+        <f>D3-D4</f>
+        <v>-466</v>
+      </c>
+      <c r="M6">
+        <f>L6/60</f>
+        <v>-7.7666666666666666</v>
+      </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2258</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>37.633333333333333</v>
+      </c>
+      <c r="F7">
+        <v>15521</v>
+      </c>
+      <c r="G7">
+        <f>(D7/F7)*$I$8</f>
+        <v>0.14548031698988467</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>2033</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>33.883333333333333</v>
+      </c>
       <c r="F8">
-        <f>D6-D8</f>
-        <v>1100</v>
+        <v>11261</v>
       </c>
       <c r="G8">
-        <f>F8/60</f>
-        <v>18.333333333333332</v>
+        <f>(D8/F8)*$I$8</f>
+        <v>0.18053458840245093</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>7838</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>130.63333333333333</v>
+      </c>
+      <c r="F9">
+        <v>196333</v>
+      </c>
+      <c r="G9">
+        <f>(D9/F9)*$I$8</f>
+        <v>3.9921969307248402E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Statistik/Tegning statistik.xlsx
+++ b/Statistik/Tegning statistik.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\Drawing-robot-semester-1\Statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB85CF0C-FE0B-4FD7-A2E7-4BB49B4B282B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0383AD7D-3B8A-4D11-84E7-398CD3B30374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4430,10 +4430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="W70" sqref="W70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4604,6 +4604,18 @@
         <v>3.9921969307248402E-2</v>
       </c>
     </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>E8*4+2*(SUM(E3:E6))</f>
+        <v>352.73333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>F17/60</f>
+        <v>5.8788888888888895</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
